--- a/data/answers/3.xlsx
+++ b/data/answers/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,21 +439,11 @@
           <t>Вопросы</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Kachanov Aleksandr Igorevich</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>1.1.3 Организация обеспечения социально-бытовых условий на объекте(наличие места для переодевания,места для приема пищи, наличие питьевой воды, наличие санузлов и т.п)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Неудовлетворительные</t>
         </is>
       </c>
     </row>
@@ -463,11 +453,6 @@
           <t>2.1.4 Обеспеченность исправным персональным инструментом</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Не обеспечены</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -475,11 +460,6 @@
           <t>2.2.4 Обеспеченность исправным групповым</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Не обеспечены</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
